--- a/pred_ohlcv/54_21/2020-01-26 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 CON ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>8879.821900000024</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>36914.26190000003</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>204119.6719</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>134033.5719</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>134033.5719</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>103996.6719</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>57940.09190000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>143044.6419</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>45925.33190000002</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83972.07190000004</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>191103.6819</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>118013.8919</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>63947.47190000002</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>164070.4719</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164070.4719</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>189742.0089</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>91621.46890000002</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>231793.6689</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>162708.7989</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>86615.31890000003</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>34551.35890000003</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-11937.75209999997</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>25107.75790000006</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>124229.5279000001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>384622.4349000001</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>332558.4749000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>408651.9549000001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>413547.2197</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>340457.4297</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>317429.1397000001</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>846659.6377000001</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>790590.7577000001</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>807611.6677</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>636401.3377</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>636401.3377</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>629392.7277</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>676450.5377</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>526970.9036999999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>596055.7736999999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>519962.2936999999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1136303.9792</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>1195376.5492</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>1142311.3592</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>1171347.0292</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>1139925.6712</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1113187.2392</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1164249.9692</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1186277.0292</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1152235.2092</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1169256.1192</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>1080146.6492</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1096166.3292</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>868006.5291999995</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>812738.8791999995</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>752635.0791999995</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>678792.3641999995</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>678792.3641999995</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>678983.3641999995</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>678498.4747999995</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>677713.5107999995</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>677913.5107999995</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>677213.4939999995</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1348135.307799999</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>784541.9953999995</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1538668.246</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1636788.786</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1527654.716</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1483057.497999999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1404961.557999999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2907210.017999999</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2961276.437999999</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2832117.767999999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>5488918.132341813</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>5416829.572341814</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>5297683.202341814</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>5288463.876341813</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>5222166.361641813</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>5113081.491641813</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>5627651.011041814</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>5567657.309041814</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>5462528.159041814</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>5518597.039041813</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>5571662.229041814</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>5542626.559041814</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 CON ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>8879.821900000024</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>36914.26190000003</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>204119.6719</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>134033.5719</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>134033.5719</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>103996.6719</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>57940.09190000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>143044.6419</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>45925.33190000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -782,7 +782,7 @@
         <v>83972.07190000004</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>191103.6819</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>118013.8919</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>135034.8019</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>63947.47190000002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>164070.4719</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>164070.4719</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>152055.7119</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>189742.0089</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>173722.3289</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>91621.46890000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>127665.7489</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>231793.6689</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>162708.7989</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>86615.31890000003</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>34551.35890000003</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-11937.75209999997</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>25107.75790000006</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>124229.5279000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>807611.6677</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>636401.3377</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>636401.3377</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>629392.7277</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>594349.6777</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>526970.9036999999</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>596055.7736999999</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>519962.2936999999</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>467898.3336999999</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1136303.9792</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>1110271.9992</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1087243.7092</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>794964.7981999995</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>868006.5291999995</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>812938.8791999995</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>812738.8791999995</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>752465.0791999995</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>752635.0791999995</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1348135.307799999</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1538668.246</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1636788.786</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1527654.716</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1483057.497999999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1404961.557999999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>2907210.017999999</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2961276.437999999</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2832117.767999999</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>5488918.132341813</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>5416829.572341814</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>5222166.361641813</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>5098063.041641813</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>5627651.011041814</v>
       </c>
       <c r="H588">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>5567657.309041814</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>5462528.159041814</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>5518597.039041813</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>5571662.229041814</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>5542626.559041814</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
